--- a/data/outputs/OR_altmetric/22.xlsx
+++ b/data/outputs/OR_altmetric/22.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE44"/>
+  <dimension ref="A1:CF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1017,6 +1022,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1523,6 +1534,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1766,6 +1780,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2019,6 +2036,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,6 +2540,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2991,6 +3020,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3242,6 +3274,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3503,6 +3538,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3752,6 +3790,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3995,6 +4036,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4236,6 +4280,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4484,6 +4531,9 @@
       </c>
       <c r="CE16" t="n">
         <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -4726,6 +4776,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4975,6 +5028,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5223,6 +5279,9 @@
       </c>
       <c r="CE19" t="n">
         <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -5465,6 +5524,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5712,6 +5774,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5956,6 +6021,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -6198,6 +6266,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6441,6 +6512,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6690,6 +6764,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6931,6 +7008,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7172,6 +7252,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7419,6 +7502,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7668,6 +7754,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7909,6 +7998,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8158,6 +8250,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8403,6 +8498,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8656,6 +8754,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8909,6 +9010,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9154,6 +9258,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9399,6 +9506,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9658,6 +9768,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9905,6 +10018,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10154,6 +10270,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10407,6 +10526,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10656,6 +10778,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10913,6 +11038,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11157,6 +11285,9 @@
       </c>
       <c r="CE43" t="n">
         <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -11399,6 +11530,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
